--- a/LCSC Order list.xlsx
+++ b/LCSC Order list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prabh\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prabh\OneDrive\Documents\GitHub\GC-20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B79B14-35D6-493A-8039-7D3DE74F9670}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CA90B4-3656-4CD5-A070-CA7BC6F59E6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" xr2:uid="{2F361DC0-DDF2-46DB-A05A-EEC882D4FECB}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="89">
   <si>
     <t>Reference Designator</t>
   </si>
@@ -196,12 +196,6 @@
   </si>
   <si>
     <t>C25830</t>
-  </si>
-  <si>
-    <t>120K</t>
-  </si>
-  <si>
-    <t>C163387</t>
   </si>
   <si>
     <t>D1</t>
@@ -380,9 +374,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -394,6 +385,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -711,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{016CD1F2-197D-407E-85A7-42FB28F96E1A}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -724,24 +718,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="A1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -974,10 +968,10 @@
         <v>41</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D19" s="1">
         <v>1206</v>
@@ -999,97 +993,97 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>48</v>
@@ -1097,27 +1091,27 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>48</v>
@@ -1125,30 +1119,30 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
